--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-common-security_structure.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-common-security_structure.xlsx
@@ -67,7 +67,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>handleNotPermissionException(com.ruoyi.common.core.exception.auth.NotPermissionException)</t>
+    <t>handleNotPermissionException(com.ruoyi.common.core.exception.auth.NotPermissionException,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>handleMethodArgumentNotValidException(org.springframework.web.bind.MethodArgumentNotValidException)</t>
@@ -76,7 +76,7 @@
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>handleHttpRequestMethodNotSupported(javax.servlet.http.HttpServletRequest)</t>
+    <t>handleHttpRequestMethodNotSupported(org.springframework.web.HttpRequestMethodNotSupportedException,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>getClass()</t>
@@ -88,7 +88,7 @@
     <t>notifyAll()</t>
   </si>
   <si>
-    <t>handleException(javax.servlet.http.HttpServletRequest)</t>
+    <t>handleException(java.lang.Exception,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>hashCode()</t>
@@ -100,16 +100,16 @@
     <t>wait()</t>
   </si>
   <si>
-    <t>handleNotRoleException(com.ruoyi.common.core.exception.auth.NotRoleException)</t>
-  </si>
-  <si>
-    <t>handleRuntimeException(javax.servlet.http.HttpServletRequest)</t>
+    <t>handleNotRoleException(com.ruoyi.common.core.exception.auth.NotRoleException,javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>handleRuntimeException(java.lang.RuntimeException,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>handleBindException(org.springframework.validation.BindException)</t>
   </si>
   <si>
-    <t>handleServiceException(com.ruoyi.common.core.exception.ServiceException)</t>
+    <t>handleServiceException(com.ruoyi.common.core.exception.ServiceException,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>handleDemoModeException(com.ruoyi.common.core.exception.DemoModeException)</t>
@@ -439,10 +439,10 @@
     <t>java.util.Map</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>afterCompletion(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
+  </si>
+  <si>
+    <t>afterCompletion(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object,java.lang.Exception)</t>
   </si>
   <si>
     <t>字段名</t>
